--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AY49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5368,6 +5368,1650 @@
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111880462</v>
+      </c>
+      <c r="B39" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>509970.2466718731</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6753250.046013334</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # vid tallar</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111880532</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>509682.5105515064</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6753540.591470475</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111880580</v>
+      </c>
+      <c r="B41" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>509755.441071702</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6753236.317390828</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111880591</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>509822.1902239832</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6753234.069152902</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111880601</v>
+      </c>
+      <c r="B43" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>509941.5744066621</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6753224.672924293</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111880509</v>
+      </c>
+      <c r="B44" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>509834.2096935506</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6753644.114383955</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111880562</v>
+      </c>
+      <c r="B45" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>509657.7198006394</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6753521.069647122</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111880574</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>509595.7160662179</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6753391.52735021</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111880500</v>
+      </c>
+      <c r="B47" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>509899.1991435916</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6753571.34232254</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111880475</v>
+      </c>
+      <c r="B48" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>509957.7514087428</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6753362.853637428</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111880484</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Rättviksheden, Dlr</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>509900.7891887496</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6753525.142772059</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>Sandtallskog</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>kalkmarksskog</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Janolof Hermansson, Nadja Hermansson Kovler</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,10 +5370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880462</v>
+        <v>111880580</v>
       </c>
       <c r="B39" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509970.2466718731</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R39" t="n">
-        <v>6753250.046013334</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5499,14 +5499,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5673,10 +5668,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111880580</v>
+        <v>111880475</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5689,26 +5684,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5724,10 +5719,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>509755.441071702</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R41" t="n">
-        <v>6753236.317390828</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5794,17 +5789,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5822,10 +5817,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880591</v>
+        <v>111880509</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5838,26 +5833,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5873,10 +5868,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509822.1902239832</v>
+        <v>509834.2096935506</v>
       </c>
       <c r="R42" t="n">
-        <v>6753234.069152902</v>
+        <v>6753644.114383955</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5971,10 +5966,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880601</v>
+        <v>111880574</v>
       </c>
       <c r="B43" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5987,26 +5982,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6022,10 +6017,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509941.5744066621</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R43" t="n">
-        <v>6753224.672924293</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6120,10 +6115,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880509</v>
+        <v>111880462</v>
       </c>
       <c r="B44" t="n">
-        <v>90652</v>
+        <v>88966</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6136,26 +6131,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3100</v>
+        <v>5754</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6171,10 +6166,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509834.2096935506</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R44" t="n">
-        <v>6753644.114383955</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6249,9 +6244,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880562</v>
+        <v>111880500</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6285,26 +6285,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509657.7198006394</v>
+        <v>509899.1991435916</v>
       </c>
       <c r="R45" t="n">
-        <v>6753521.069647122</v>
+        <v>6753571.34232254</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6390,17 +6390,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880574</v>
+        <v>111880591</v>
       </c>
       <c r="B46" t="n">
         <v>90658</v>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509595.7160662179</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R46" t="n">
-        <v>6753391.52735021</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6567,10 +6567,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880500</v>
+        <v>111880562</v>
       </c>
       <c r="B47" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6583,26 +6583,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509899.1991435916</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R47" t="n">
-        <v>6753571.34232254</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6688,17 +6688,17 @@
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880475</v>
+        <v>111880484</v>
       </c>
       <c r="B48" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6732,26 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509957.7514087428</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R48" t="n">
-        <v>6753362.853637428</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6837,17 +6837,17 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880484</v>
+        <v>111880601</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6881,26 +6881,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509900.7891887496</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R49" t="n">
-        <v>6753525.142772059</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,7 +5370,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880580</v>
+        <v>111880484</v>
       </c>
       <c r="B39" t="n">
         <v>90658</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509755.441071702</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R39" t="n">
-        <v>6753236.317390828</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880532</v>
+        <v>111880601</v>
       </c>
       <c r="B40" t="n">
-        <v>90652</v>
+        <v>88966</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,26 +5535,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3100</v>
+        <v>5754</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509682.5105515064</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R40" t="n">
-        <v>6753540.591470475</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111880475</v>
+        <v>111880509</v>
       </c>
       <c r="B41" t="n">
-        <v>88966</v>
+        <v>90652</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5684,26 +5684,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5754</v>
+        <v>3100</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>509957.7514087428</v>
+        <v>509834.2096935506</v>
       </c>
       <c r="R41" t="n">
-        <v>6753362.853637428</v>
+        <v>6753644.114383955</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5789,17 +5789,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880509</v>
+        <v>111880562</v>
       </c>
       <c r="B42" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5833,26 +5833,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509834.2096935506</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R42" t="n">
-        <v>6753644.114383955</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880574</v>
+        <v>111880500</v>
       </c>
       <c r="B43" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5982,26 +5982,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6017,10 +6017,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509595.7160662179</v>
+        <v>509899.1991435916</v>
       </c>
       <c r="R43" t="n">
-        <v>6753391.52735021</v>
+        <v>6753571.34232254</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6087,17 +6087,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880500</v>
+        <v>111880574</v>
       </c>
       <c r="B45" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6285,26 +6285,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509899.1991435916</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R45" t="n">
-        <v>6753571.34232254</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6390,17 +6390,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880591</v>
+        <v>111880532</v>
       </c>
       <c r="B46" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6434,26 +6434,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509822.1902239832</v>
+        <v>509682.5105515064</v>
       </c>
       <c r="R46" t="n">
-        <v>6753234.069152902</v>
+        <v>6753540.591470475</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880562</v>
+        <v>111880591</v>
       </c>
       <c r="B47" t="n">
         <v>90658</v>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509657.7198006394</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R47" t="n">
-        <v>6753521.069647122</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880484</v>
+        <v>111880475</v>
       </c>
       <c r="B48" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6732,26 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509900.7891887496</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R48" t="n">
-        <v>6753525.142772059</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6837,17 +6837,17 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880601</v>
+        <v>111880580</v>
       </c>
       <c r="B49" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6881,26 +6881,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509941.5744066621</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R49" t="n">
-        <v>6753224.672924293</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,7 +5370,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880484</v>
+        <v>111880591</v>
       </c>
       <c r="B39" t="n">
         <v>90658</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509900.7891887496</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R39" t="n">
-        <v>6753525.142772059</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880601</v>
+        <v>111880509</v>
       </c>
       <c r="B40" t="n">
-        <v>88966</v>
+        <v>90652</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,26 +5535,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5754</v>
+        <v>3100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509941.5744066621</v>
+        <v>509834.2096935506</v>
       </c>
       <c r="R40" t="n">
-        <v>6753224.672924293</v>
+        <v>6753644.114383955</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111880509</v>
+        <v>111880532</v>
       </c>
       <c r="B41" t="n">
         <v>90652</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>509834.2096935506</v>
+        <v>509682.5105515064</v>
       </c>
       <c r="R41" t="n">
-        <v>6753644.114383955</v>
+        <v>6753540.591470475</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880562</v>
+        <v>111880580</v>
       </c>
       <c r="B42" t="n">
         <v>90658</v>
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509657.7198006394</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R42" t="n">
-        <v>6753521.069647122</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5966,10 +5966,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880500</v>
+        <v>111880484</v>
       </c>
       <c r="B43" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5982,26 +5982,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6017,10 +6017,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509899.1991435916</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R43" t="n">
-        <v>6753571.34232254</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6087,17 +6087,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6115,10 +6115,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880462</v>
+        <v>111880574</v>
       </c>
       <c r="B44" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6131,26 +6131,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509970.2466718731</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R44" t="n">
-        <v>6753250.046013334</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6244,14 +6244,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6269,10 +6264,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880574</v>
+        <v>111880475</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6285,21 +6280,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -6320,10 +6315,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509595.7160662179</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R45" t="n">
-        <v>6753391.52735021</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6390,17 +6385,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6418,10 +6413,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880532</v>
+        <v>111880562</v>
       </c>
       <c r="B46" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6434,26 +6429,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6464,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509682.5105515064</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R46" t="n">
-        <v>6753540.591470475</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6567,10 +6562,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880591</v>
+        <v>111880601</v>
       </c>
       <c r="B47" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6583,26 +6578,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6618,10 +6613,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509822.1902239832</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R47" t="n">
-        <v>6753234.069152902</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6716,7 +6711,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880475</v>
+        <v>111880462</v>
       </c>
       <c r="B48" t="n">
         <v>88966</v>
@@ -6751,7 +6746,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6767,10 +6762,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509957.7514087428</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R48" t="n">
-        <v>6753362.853637428</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6837,17 +6832,22 @@
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880580</v>
+        <v>111880500</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6881,26 +6881,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509755.441071702</v>
+        <v>509899.1991435916</v>
       </c>
       <c r="R49" t="n">
-        <v>6753236.317390828</v>
+        <v>6753571.34232254</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6986,17 +6986,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,10 +5370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880591</v>
+        <v>111880601</v>
       </c>
       <c r="B39" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509822.1902239832</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R39" t="n">
-        <v>6753234.069152902</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880509</v>
+        <v>111880475</v>
       </c>
       <c r="B40" t="n">
-        <v>90652</v>
+        <v>88966</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,26 +5535,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3100</v>
+        <v>5754</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509834.2096935506</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R40" t="n">
-        <v>6753644.114383955</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5640,17 +5640,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880580</v>
+        <v>111880484</v>
       </c>
       <c r="B42" t="n">
         <v>90658</v>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509755.441071702</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R42" t="n">
-        <v>6753236.317390828</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880484</v>
+        <v>111880574</v>
       </c>
       <c r="B43" t="n">
         <v>90658</v>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6017,10 +6017,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509900.7891887496</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R43" t="n">
-        <v>6753525.142772059</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6115,10 +6115,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880574</v>
+        <v>111880462</v>
       </c>
       <c r="B44" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6131,26 +6131,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6166,10 +6166,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509595.7160662179</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R44" t="n">
-        <v>6753391.52735021</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6244,9 +6244,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6264,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880475</v>
+        <v>111880591</v>
       </c>
       <c r="B45" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6280,26 +6285,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6315,10 +6320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509957.7514087428</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R45" t="n">
-        <v>6753362.853637428</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6385,17 +6390,17 @@
       </c>
       <c r="AJ45" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -6413,10 +6418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880562</v>
+        <v>111880509</v>
       </c>
       <c r="B46" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6429,26 +6434,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6464,10 +6469,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509657.7198006394</v>
+        <v>509834.2096935506</v>
       </c>
       <c r="R46" t="n">
-        <v>6753521.069647122</v>
+        <v>6753644.114383955</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6562,10 +6567,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880601</v>
+        <v>111880562</v>
       </c>
       <c r="B47" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6578,26 +6583,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6613,10 +6618,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509941.5744066621</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R47" t="n">
-        <v>6753224.672924293</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6711,10 +6716,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880462</v>
+        <v>111880580</v>
       </c>
       <c r="B48" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6727,26 +6732,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6762,10 +6767,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509970.2466718731</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R48" t="n">
-        <v>6753250.046013334</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6840,14 +6845,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL48" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,10 +5370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880601</v>
+        <v>111880580</v>
       </c>
       <c r="B39" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509941.5744066621</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R39" t="n">
-        <v>6753224.672924293</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880475</v>
+        <v>111880574</v>
       </c>
       <c r="B40" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,21 +5535,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509957.7514087428</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R40" t="n">
-        <v>6753362.853637428</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5640,17 +5640,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5817,10 +5817,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880484</v>
+        <v>111880462</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5833,26 +5833,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5868,10 +5868,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509900.7891887496</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R42" t="n">
-        <v>6753525.142772059</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5946,9 +5946,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5966,10 +5971,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880574</v>
+        <v>111880500</v>
       </c>
       <c r="B43" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5982,26 +5987,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6017,10 +6022,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509595.7160662179</v>
+        <v>509899.1991435916</v>
       </c>
       <c r="R43" t="n">
-        <v>6753391.52735021</v>
+        <v>6753571.34232254</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6087,17 +6092,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6115,7 +6120,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880462</v>
+        <v>111880475</v>
       </c>
       <c r="B44" t="n">
         <v>88966</v>
@@ -6150,7 +6155,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6166,10 +6171,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509970.2466718731</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R44" t="n">
-        <v>6753250.046013334</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6236,22 +6241,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880591</v>
+        <v>111880601</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6285,26 +6285,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509822.1902239832</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R45" t="n">
-        <v>6753234.069152902</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880509</v>
+        <v>111880591</v>
       </c>
       <c r="B46" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6434,26 +6434,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509834.2096935506</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R46" t="n">
-        <v>6753644.114383955</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880562</v>
+        <v>111880484</v>
       </c>
       <c r="B47" t="n">
         <v>90658</v>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509657.7198006394</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R47" t="n">
-        <v>6753521.069647122</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880580</v>
+        <v>111880562</v>
       </c>
       <c r="B48" t="n">
         <v>90658</v>
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509755.441071702</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R48" t="n">
-        <v>6753236.317390828</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880500</v>
+        <v>111880509</v>
       </c>
       <c r="B49" t="n">
-        <v>88966</v>
+        <v>90652</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6881,26 +6881,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5754</v>
+        <v>3100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6916,10 +6916,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509899.1991435916</v>
+        <v>509834.2096935506</v>
       </c>
       <c r="R49" t="n">
-        <v>6753571.34232254</v>
+        <v>6753644.114383955</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6986,17 +6986,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5519,10 +5519,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880574</v>
+        <v>111880462</v>
       </c>
       <c r="B40" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,26 +5535,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509595.7160662179</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R40" t="n">
-        <v>6753391.52735021</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5648,9 +5648,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5817,7 +5822,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880462</v>
+        <v>111880475</v>
       </c>
       <c r="B42" t="n">
         <v>88966</v>
@@ -5852,7 +5857,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5868,10 +5873,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509970.2466718731</v>
+        <v>509957.7514087428</v>
       </c>
       <c r="R42" t="n">
-        <v>6753250.046013334</v>
+        <v>6753362.853637428</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5938,22 +5943,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5971,10 +5971,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880500</v>
+        <v>111880591</v>
       </c>
       <c r="B43" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5987,26 +5987,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6022,10 +6022,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509899.1991435916</v>
+        <v>509822.1902239832</v>
       </c>
       <c r="R43" t="n">
-        <v>6753571.34232254</v>
+        <v>6753234.069152902</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6092,17 +6092,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880475</v>
+        <v>111880500</v>
       </c>
       <c r="B44" t="n">
         <v>88966</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6171,10 +6171,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509957.7514087428</v>
+        <v>509899.1991435916</v>
       </c>
       <c r="R44" t="n">
-        <v>6753362.853637428</v>
+        <v>6753571.34232254</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880601</v>
+        <v>111880484</v>
       </c>
       <c r="B45" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6285,26 +6285,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509941.5744066621</v>
+        <v>509900.7891887496</v>
       </c>
       <c r="R45" t="n">
-        <v>6753224.672924293</v>
+        <v>6753525.142772059</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880591</v>
+        <v>111880601</v>
       </c>
       <c r="B46" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6434,26 +6434,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6469,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509822.1902239832</v>
+        <v>509941.5744066621</v>
       </c>
       <c r="R46" t="n">
-        <v>6753234.069152902</v>
+        <v>6753224.672924293</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880484</v>
+        <v>111880562</v>
       </c>
       <c r="B47" t="n">
         <v>90658</v>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509900.7891887496</v>
+        <v>509657.7198006394</v>
       </c>
       <c r="R47" t="n">
-        <v>6753525.142772059</v>
+        <v>6753521.069647122</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880562</v>
+        <v>111880574</v>
       </c>
       <c r="B48" t="n">
         <v>90658</v>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6767,10 +6767,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509657.7198006394</v>
+        <v>509595.7160662179</v>
       </c>
       <c r="R48" t="n">
-        <v>6753521.069647122</v>
+        <v>6753391.52735021</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,10 +5370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880580</v>
+        <v>111880462</v>
       </c>
       <c r="B39" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509755.441071702</v>
+        <v>509970.2466718731</v>
       </c>
       <c r="R39" t="n">
-        <v>6753236.317390828</v>
+        <v>6753250.046013334</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5499,9 +5499,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5519,10 +5524,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880462</v>
+        <v>111880580</v>
       </c>
       <c r="B40" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5535,26 +5540,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5570,10 +5575,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509970.2466718731</v>
+        <v>509755.441071702</v>
       </c>
       <c r="R40" t="n">
-        <v>6753250.046013334</v>
+        <v>6753236.317390828</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5648,14 +5653,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,7 +5370,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880462</v>
+        <v>111880601</v>
       </c>
       <c r="B39" t="n">
         <v>88966</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509970.2466718731</v>
+        <v>509942</v>
       </c>
       <c r="R39" t="n">
-        <v>6753250.046013334</v>
+        <v>6753225</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5454,19 +5454,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5499,14 +5489,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5524,10 +5509,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880580</v>
+        <v>111880475</v>
       </c>
       <c r="B40" t="n">
-        <v>90658</v>
+        <v>88966</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5540,26 +5525,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5575,10 +5560,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509755.441071702</v>
+        <v>509958</v>
       </c>
       <c r="R40" t="n">
-        <v>6753236.317390828</v>
+        <v>6753363</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5608,19 +5593,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5645,17 +5620,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5673,10 +5648,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111880532</v>
+        <v>111880500</v>
       </c>
       <c r="B41" t="n">
-        <v>90652</v>
+        <v>88966</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5689,26 +5664,26 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3100</v>
+        <v>5754</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5724,10 +5699,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>509682.5105515064</v>
+        <v>509899</v>
       </c>
       <c r="R41" t="n">
-        <v>6753540.591470475</v>
+        <v>6753571</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5757,19 +5732,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5794,17 +5759,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5822,10 +5787,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880475</v>
+        <v>111880484</v>
       </c>
       <c r="B42" t="n">
-        <v>88966</v>
+        <v>90658</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5838,26 +5803,26 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5873,10 +5838,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509957.7514087428</v>
+        <v>509901</v>
       </c>
       <c r="R42" t="n">
-        <v>6753362.853637428</v>
+        <v>6753525</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5906,19 +5871,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5943,17 +5898,17 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5971,7 +5926,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880591</v>
+        <v>111880574</v>
       </c>
       <c r="B43" t="n">
         <v>90658</v>
@@ -6006,7 +5961,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6022,10 +5977,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509822.1902239832</v>
+        <v>509596</v>
       </c>
       <c r="R43" t="n">
-        <v>6753234.069152902</v>
+        <v>6753392</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6055,19 +6010,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -6120,10 +6065,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111880500</v>
+        <v>111880532</v>
       </c>
       <c r="B44" t="n">
-        <v>88966</v>
+        <v>90652</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6136,26 +6081,26 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5754</v>
+        <v>3100</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6171,10 +6116,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>509899.1991435916</v>
+        <v>509683</v>
       </c>
       <c r="R44" t="n">
-        <v>6753571.34232254</v>
+        <v>6753541</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6204,19 +6149,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -6241,17 +6176,17 @@
       </c>
       <c r="AJ44" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -6269,7 +6204,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880484</v>
+        <v>111880580</v>
       </c>
       <c r="B45" t="n">
         <v>90658</v>
@@ -6304,7 +6239,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6320,10 +6255,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509900.7891887496</v>
+        <v>509755</v>
       </c>
       <c r="R45" t="n">
-        <v>6753525.142772059</v>
+        <v>6753236</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6353,19 +6288,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -6418,7 +6343,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880601</v>
+        <v>111880462</v>
       </c>
       <c r="B46" t="n">
         <v>88966</v>
@@ -6453,7 +6378,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6469,10 +6394,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509941.5744066621</v>
+        <v>509970</v>
       </c>
       <c r="R46" t="n">
-        <v>6753224.672924293</v>
+        <v>6753250</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6502,19 +6427,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -6547,9 +6462,14 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
+        </is>
+      </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6618,10 +6538,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509657.7198006394</v>
+        <v>509658</v>
       </c>
       <c r="R47" t="n">
-        <v>6753521.069647122</v>
+        <v>6753521</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6651,19 +6571,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6716,10 +6626,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880574</v>
+        <v>111880509</v>
       </c>
       <c r="B48" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6732,26 +6642,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6767,10 +6677,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509595.7160662179</v>
+        <v>509834</v>
       </c>
       <c r="R48" t="n">
-        <v>6753391.52735021</v>
+        <v>6753644</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6800,19 +6710,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6865,10 +6765,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880509</v>
+        <v>111880591</v>
       </c>
       <c r="B49" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6881,26 +6781,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6916,10 +6816,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509834.2096935506</v>
+        <v>509822</v>
       </c>
       <c r="R49" t="n">
-        <v>6753644.114383955</v>
+        <v>6753234</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6949,19 +6849,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">

--- a/artfynd/A 15457-2019.xlsx
+++ b/artfynd/A 15457-2019.xlsx
@@ -5370,10 +5370,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111880601</v>
+        <v>111880562</v>
       </c>
       <c r="B39" t="n">
-        <v>88966</v>
+        <v>90792</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5386,26 +5386,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5421,10 +5421,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>509942</v>
+        <v>509658</v>
       </c>
       <c r="R39" t="n">
-        <v>6753225</v>
+        <v>6753521</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111880475</v>
+        <v>111880484</v>
       </c>
       <c r="B40" t="n">
-        <v>88966</v>
+        <v>90792</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5525,26 +5525,26 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5560,10 +5560,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>509958</v>
+        <v>509901</v>
       </c>
       <c r="R40" t="n">
-        <v>6753363</v>
+        <v>6753525</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5620,17 +5620,17 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111880500</v>
+        <v>111880462</v>
       </c>
       <c r="B41" t="n">
-        <v>88966</v>
+        <v>89100</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5699,10 +5699,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>509899</v>
+        <v>509970</v>
       </c>
       <c r="R41" t="n">
-        <v>6753571</v>
+        <v>6753250</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5759,17 +5759,22 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>vid tallar</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris # vid tallar</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5787,10 +5792,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111880484</v>
+        <v>111880574</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5822,7 +5827,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5838,10 +5843,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>509901</v>
+        <v>509596</v>
       </c>
       <c r="R42" t="n">
-        <v>6753525</v>
+        <v>6753392</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5926,10 +5931,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111880574</v>
+        <v>111880500</v>
       </c>
       <c r="B43" t="n">
-        <v>90658</v>
+        <v>89100</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5942,26 +5947,26 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5977,10 +5982,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>509596</v>
+        <v>509899</v>
       </c>
       <c r="R43" t="n">
-        <v>6753392</v>
+        <v>6753571</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -6037,17 +6042,17 @@
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -6068,7 +6073,7 @@
         <v>111880532</v>
       </c>
       <c r="B44" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6204,10 +6209,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111880580</v>
+        <v>111880509</v>
       </c>
       <c r="B45" t="n">
-        <v>90658</v>
+        <v>90786</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6220,26 +6225,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6255,10 +6260,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>509755</v>
+        <v>509834</v>
       </c>
       <c r="R45" t="n">
-        <v>6753236</v>
+        <v>6753644</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -6343,10 +6348,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111880462</v>
+        <v>111880580</v>
       </c>
       <c r="B46" t="n">
-        <v>88966</v>
+        <v>90792</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6359,26 +6364,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5754</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -6394,10 +6399,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>509970</v>
+        <v>509755</v>
       </c>
       <c r="R46" t="n">
-        <v>6753250</v>
+        <v>6753236</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -6462,14 +6467,9 @@
           <t>Pinus sylvestris</t>
         </is>
       </c>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>vid tallar</t>
-        </is>
-      </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Pinus sylvestris # vid tallar</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -6487,10 +6487,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111880562</v>
+        <v>111880601</v>
       </c>
       <c r="B47" t="n">
-        <v>90658</v>
+        <v>89100</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6503,26 +6503,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>509658</v>
+        <v>509942</v>
       </c>
       <c r="R47" t="n">
-        <v>6753521</v>
+        <v>6753225</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111880509</v>
+        <v>111880591</v>
       </c>
       <c r="B48" t="n">
-        <v>90652</v>
+        <v>90792</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6642,26 +6642,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6677,10 +6677,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>509834</v>
+        <v>509822</v>
       </c>
       <c r="R48" t="n">
-        <v>6753644</v>
+        <v>6753234</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111880591</v>
+        <v>111880475</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>89100</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6781,26 +6781,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>5754</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6816,10 +6816,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>509822</v>
+        <v>509958</v>
       </c>
       <c r="R49" t="n">
-        <v>6753234</v>
+        <v>6753363</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6876,17 +6876,17 @@
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
